--- a/src/results/manually_verified_results/unified_results_20_prompt_other_possibilities_expanded_3_types with manually parsed results.xlsx
+++ b/src/results/manually_verified_results/unified_results_20_prompt_other_possibilities_expanded_3_types with manually parsed results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roeeesquira/PycharmProjects/possibilities/src/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roeeesquira/PycharmProjects/possibilities/src/results/manually_verified_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEA358D-914E-5948-84B3-24ECAF4A004A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E190919B-2A23-4A4A-BF05-0CB1A0052869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3892,8 +3892,8 @@
   <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F207" sqref="F207"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
